--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2239.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2239.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.318773123099123</v>
+        <v>1.084007382392883</v>
       </c>
       <c r="B1">
-        <v>2.948389126590912</v>
+        <v>2.414854049682617</v>
       </c>
       <c r="C1">
-        <v>8.132572044020545</v>
+        <v>6.449297428131104</v>
       </c>
       <c r="D1">
-        <v>1.946941375473767</v>
+        <v>2.220097541809082</v>
       </c>
       <c r="E1">
-        <v>1.074424837106162</v>
+        <v>1.2778400182724</v>
       </c>
     </row>
   </sheetData>
